--- a/data/trans_camb/P25_7-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_7-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>-3,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>2,28</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>-0,96</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,44</t>
+          <t>4,15</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,36</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,72</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>2,99</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,7</t>
+          <t>-11,06; 6,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 5,27</t>
+          <t>-12,84; 5,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,35; 6,16</t>
+          <t>-8,05; 11,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,87; 3,86</t>
+          <t>-10,51; 8,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,38</t>
+          <t>-14,48; 3,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,54; 2,42</t>
+          <t>-5,21; 14,35</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 5,67</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-11,16; 1,92</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-5,53; 9,92</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>-7,79%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-17,13%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,63%</t>
+          <t>-2,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>-15,14%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>12,21%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-4,87%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-16,89%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10,7%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 67,19</t>
+          <t>-43,84; 43,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-35,08; 38,16</t>
+          <t>-49,09; 31,76</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,82; 20,46</t>
+          <t>-32,2; 72,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,89; 13,25</t>
+          <t>-26,94; 28,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-16,82; 23,64</t>
+          <t>-38,56; 11,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-27,24; 10,08</t>
+          <t>-13,57; 49,35</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 23,35</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-35,67; 8,03</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-17,62; 40,84</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,57</t>
+          <t>-2,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,61</t>
+          <t>-6,66</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>-1,13</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,52</t>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-1,65</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-4,1</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-16,29; 2,71</t>
+          <t>-13,18; 8,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -0,15</t>
+          <t>-15,99; 3,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 11,83</t>
+          <t>-8,27; 12,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 9,46</t>
+          <t>-10,22; 11,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-7,99; 5,01</t>
+          <t>-11,28; 9,47</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,48; 2,74</t>
+          <t>-9,31; 18,14</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-9,59; 5,41</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 2,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 9,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,21%</t>
+          <t>-11,7%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-35,36%</t>
+          <t>-26,45%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>5,29%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,3%</t>
+          <t>-0,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,04%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-12,93%</t>
+          <t>6,33%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-5,7%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-14,2%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,34; 18,18</t>
+          <t>-42,56; 41,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-63,54; 0,9</t>
+          <t>-53,59; 17,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-16,53; 44,0</t>
+          <t>-27,74; 64,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 32,9</t>
+          <t>-27,39; 42,32</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,1; 20,94</t>
+          <t>-31,1; 35,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 11,96</t>
+          <t>-25,7; 69,54</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-28,96; 21,69</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-37,17; 10,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-23,35; 39,84</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,88</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>22,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-6,89</t>
+          <t>19,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,79</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>-11,12</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>-5,1</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,24</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,64</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,4</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 20,9</t>
+          <t>-24,65; 28,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,99; 43,3</t>
+          <t>-7,76; 55,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-23,76; 10,73</t>
+          <t>-10,41; 57,02</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-28,15; 5,91</t>
+          <t>-20,21; 23,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,81; 12,03</t>
+          <t>-32,33; 9,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,3; 18,01</t>
+          <t>-26,07; 17,93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-17,65; 19,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,65; 30,51</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-10,99; 34,5</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>43,31%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>112,28%</t>
+          <t>98,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-16,11%</t>
+          <t>87,75%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-25,24%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-1,08%</t>
+          <t>-28,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>-13,12%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,03%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18,36%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>24,08%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,94; 290,12</t>
+          <t>-68,38; 270,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,34; 598,38</t>
+          <t>-36,51; 588,76</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,25; 32,7</t>
+          <t>-47,24; 580,36</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-55,31; 17,24</t>
+          <t>-41,21; 84,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,33; 56,62</t>
+          <t>-65,7; 38,86</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,99; 83,3</t>
+          <t>-55,45; 68,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-45,06; 85,8</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-38,13; 155,02</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-30,13; 180,44</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,03</t>
+          <t>-1,81</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,62</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,21</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,38</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>2,87</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 5,04</t>
+          <t>-8,59; 5,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,38; 3,53</t>
+          <t>-9,29; 5,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,52; 5,44</t>
+          <t>-4,09; 12,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,2; 2,9</t>
+          <t>-6,88; 6,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 3,64</t>
+          <t>-10,76; 2,32</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 1,64</t>
+          <t>-4,74; 9,78</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-6,36; 3,43</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 1,7</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 8,27</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-7,95%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-8,8%</t>
+          <t>-8,9%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-0,72%</t>
+          <t>16,88%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-7,06%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,79%</t>
+          <t>-12,13%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-8,71%</t>
+          <t>7,29%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-4,27%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-11,82%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-26,08; 31,64</t>
+          <t>-32,53; 25,73</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 22,0</t>
+          <t>-36,74; 29,59</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-15,25; 18,6</t>
+          <t>-16,05; 65,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,86; 9,91</t>
+          <t>-19,31; 20,49</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 14,56</t>
+          <t>-28,83; 7,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,74; 6,8</t>
+          <t>-12,68; 31,74</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-20,42; 12,85</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-27,28; 6,95</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-11,35; 30,92</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
